--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Ghsr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.992786772247148</v>
+        <v>1.619940333333333</v>
       </c>
       <c r="H2">
-        <v>0.992786772247148</v>
+        <v>4.859821</v>
       </c>
       <c r="I2">
-        <v>0.1564503105204429</v>
+        <v>0.196514234745789</v>
       </c>
       <c r="J2">
-        <v>0.1564503105204429</v>
+        <v>0.196514234745789</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.41984219427448</v>
+        <v>0.2864683333333333</v>
       </c>
       <c r="N2">
-        <v>2.41984219427448</v>
+        <v>0.859405</v>
       </c>
       <c r="O2">
-        <v>0.8487572343305475</v>
+        <v>0.07653612378937993</v>
       </c>
       <c r="P2">
-        <v>0.8487572343305475</v>
+        <v>0.07653612378937995</v>
       </c>
       <c r="Q2">
-        <v>2.402387321401217</v>
+        <v>0.4640616073894444</v>
       </c>
       <c r="R2">
-        <v>2.402387321401217</v>
+        <v>4.176554466505</v>
       </c>
       <c r="S2">
-        <v>0.1327883328674865</v>
+        <v>0.01504043779687897</v>
       </c>
       <c r="T2">
-        <v>0.1327883328674865</v>
+        <v>0.01504043779687897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,433 +590,1797 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.992786772247148</v>
+        <v>1.619940333333333</v>
       </c>
       <c r="H3">
-        <v>0.992786772247148</v>
+        <v>4.859821</v>
       </c>
       <c r="I3">
-        <v>0.1564503105204429</v>
+        <v>0.196514234745789</v>
       </c>
       <c r="J3">
-        <v>0.1564503105204429</v>
+        <v>0.196514234745789</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.431199418564457</v>
+        <v>2.423946</v>
       </c>
       <c r="N3">
-        <v>0.431199418564457</v>
+        <v>7.271838</v>
       </c>
       <c r="O3">
-        <v>0.1512427656694524</v>
+        <v>0.647608861182233</v>
       </c>
       <c r="P3">
-        <v>0.1512427656694524</v>
+        <v>0.6476088611822332</v>
       </c>
       <c r="Q3">
-        <v>0.4280890789514541</v>
+        <v>3.926647891222</v>
       </c>
       <c r="R3">
-        <v>0.4280890789514541</v>
+        <v>35.339831020998</v>
       </c>
       <c r="S3">
-        <v>0.0236619776529564</v>
+        <v>0.1272643597698184</v>
       </c>
       <c r="T3">
-        <v>0.0236619776529564</v>
+        <v>0.1272643597698184</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.64833327035638</v>
+        <v>1.619940333333333</v>
       </c>
       <c r="H4">
-        <v>1.64833327035638</v>
+        <v>4.859821</v>
       </c>
       <c r="I4">
-        <v>0.2597559306765568</v>
+        <v>0.196514234745789</v>
       </c>
       <c r="J4">
-        <v>0.2597559306765568</v>
+        <v>0.196514234745789</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.41984219427448</v>
+        <v>0.2710936666666667</v>
       </c>
       <c r="N4">
-        <v>2.41984219427448</v>
+        <v>0.813281</v>
       </c>
       <c r="O4">
-        <v>0.8487572343305475</v>
+        <v>0.0724284537459646</v>
       </c>
       <c r="P4">
-        <v>0.8487572343305475</v>
+        <v>0.07242845374596461</v>
       </c>
       <c r="Q4">
-        <v>3.988706397834812</v>
+        <v>0.4391555647445556</v>
       </c>
       <c r="R4">
-        <v>3.988706397834812</v>
+        <v>3.952400082701</v>
       </c>
       <c r="S4">
-        <v>0.2204697253219918</v>
+        <v>0.01423322216170901</v>
       </c>
       <c r="T4">
-        <v>0.2204697253219918</v>
+        <v>0.01423322216170901</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.64833327035638</v>
+        <v>1.619940333333333</v>
       </c>
       <c r="H5">
-        <v>1.64833327035638</v>
+        <v>4.859821</v>
       </c>
       <c r="I5">
-        <v>0.2597559306765568</v>
+        <v>0.196514234745789</v>
       </c>
       <c r="J5">
-        <v>0.2597559306765568</v>
+        <v>0.196514234745789</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.431199418564457</v>
+        <v>0.311266</v>
       </c>
       <c r="N5">
-        <v>0.431199418564457</v>
+        <v>0.933798</v>
       </c>
       <c r="O5">
-        <v>0.1512427656694524</v>
+        <v>0.08316134921518423</v>
       </c>
       <c r="P5">
-        <v>0.1512427656694524</v>
+        <v>0.08316134921518425</v>
       </c>
       <c r="Q5">
-        <v>0.7107603477781209</v>
+        <v>0.5042323477953333</v>
       </c>
       <c r="R5">
-        <v>0.7107603477781209</v>
+        <v>4.538091130158</v>
       </c>
       <c r="S5">
-        <v>0.039286205354565</v>
+        <v>0.01634238890144925</v>
       </c>
       <c r="T5">
-        <v>0.039286205354565</v>
+        <v>0.01634238890144925</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.06196685774489</v>
+        <v>1.619940333333333</v>
       </c>
       <c r="H6">
-        <v>2.06196685774489</v>
+        <v>4.859821</v>
       </c>
       <c r="I6">
-        <v>0.3249392157460594</v>
+        <v>0.196514234745789</v>
       </c>
       <c r="J6">
-        <v>0.3249392157460594</v>
+        <v>0.196514234745789</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.41984219427448</v>
+        <v>0.4501426666666666</v>
       </c>
       <c r="N6">
-        <v>2.41984219427448</v>
+        <v>1.350428</v>
       </c>
       <c r="O6">
-        <v>0.8487572343305475</v>
+        <v>0.1202652120672381</v>
       </c>
       <c r="P6">
-        <v>0.8487572343305475</v>
+        <v>0.1202652120672381</v>
       </c>
       <c r="Q6">
-        <v>4.98963440556665</v>
+        <v>0.7292042614875555</v>
       </c>
       <c r="R6">
-        <v>4.98963440556665</v>
+        <v>6.562838353388</v>
       </c>
       <c r="S6">
-        <v>0.2757945100821624</v>
+        <v>0.02363382611593332</v>
       </c>
       <c r="T6">
-        <v>0.2757945100821624</v>
+        <v>0.02363382611593333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.06196685774489</v>
+        <v>0.4610223333333334</v>
       </c>
       <c r="H7">
-        <v>2.06196685774489</v>
+        <v>1.383067</v>
       </c>
       <c r="I7">
-        <v>0.3249392157460594</v>
+        <v>0.05592641233229663</v>
       </c>
       <c r="J7">
-        <v>0.3249392157460594</v>
+        <v>0.05592641233229662</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.431199418564457</v>
+        <v>0.2864683333333333</v>
       </c>
       <c r="N7">
-        <v>0.431199418564457</v>
+        <v>0.859405</v>
       </c>
       <c r="O7">
-        <v>0.1512427656694524</v>
+        <v>0.07653612378937993</v>
       </c>
       <c r="P7">
-        <v>0.1512427656694524</v>
+        <v>0.07653612378937995</v>
       </c>
       <c r="Q7">
-        <v>0.8891189101587771</v>
+        <v>0.1320682994594445</v>
       </c>
       <c r="R7">
-        <v>0.8891189101587771</v>
+        <v>1.188614695135</v>
       </c>
       <c r="S7">
-        <v>0.04914470566389689</v>
+        <v>0.00428039081736056</v>
       </c>
       <c r="T7">
-        <v>0.04914470566389689</v>
+        <v>0.00428039081736056</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.64261333472669</v>
+        <v>0.4610223333333334</v>
       </c>
       <c r="H8">
-        <v>1.64261333472669</v>
+        <v>1.383067</v>
       </c>
       <c r="I8">
-        <v>0.258854543056941</v>
+        <v>0.05592641233229663</v>
       </c>
       <c r="J8">
-        <v>0.258854543056941</v>
+        <v>0.05592641233229662</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.41984219427448</v>
+        <v>2.423946</v>
       </c>
       <c r="N8">
-        <v>2.41984219427448</v>
+        <v>7.271838</v>
       </c>
       <c r="O8">
-        <v>0.8487572343305475</v>
+        <v>0.647608861182233</v>
       </c>
       <c r="P8">
-        <v>0.8487572343305475</v>
+        <v>0.6476088611822332</v>
       </c>
       <c r="Q8">
-        <v>3.974865056249555</v>
+        <v>1.117493240794</v>
       </c>
       <c r="R8">
-        <v>3.974865056249555</v>
+        <v>10.057439167146</v>
       </c>
       <c r="S8">
-        <v>0.2197046660589069</v>
+        <v>0.03621844020052661</v>
       </c>
       <c r="T8">
-        <v>0.2197046660589069</v>
+        <v>0.03621844020052661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4610223333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.383067</v>
+      </c>
+      <c r="I9">
+        <v>0.05592641233229663</v>
+      </c>
+      <c r="J9">
+        <v>0.05592641233229662</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.2710936666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.813281</v>
+      </c>
+      <c r="O9">
+        <v>0.0724284537459646</v>
+      </c>
+      <c r="P9">
+        <v>0.07242845374596461</v>
+      </c>
+      <c r="Q9">
+        <v>0.1249802347585556</v>
+      </c>
+      <c r="R9">
+        <v>1.124822112827</v>
+      </c>
+      <c r="S9">
+        <v>0.004050663568787491</v>
+      </c>
+      <c r="T9">
+        <v>0.004050663568787491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4610223333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.383067</v>
+      </c>
+      <c r="I10">
+        <v>0.05592641233229663</v>
+      </c>
+      <c r="J10">
+        <v>0.05592641233229662</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.311266</v>
+      </c>
+      <c r="N10">
+        <v>0.933798</v>
+      </c>
+      <c r="O10">
+        <v>0.08316134921518423</v>
+      </c>
+      <c r="P10">
+        <v>0.08316134921518425</v>
+      </c>
+      <c r="Q10">
+        <v>0.1435005776073333</v>
+      </c>
+      <c r="R10">
+        <v>1.291505198466</v>
+      </c>
+      <c r="S10">
+        <v>0.004650915906318506</v>
+      </c>
+      <c r="T10">
+        <v>0.004650915906318507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4610223333333334</v>
+      </c>
+      <c r="H11">
+        <v>1.383067</v>
+      </c>
+      <c r="I11">
+        <v>0.05592641233229663</v>
+      </c>
+      <c r="J11">
+        <v>0.05592641233229662</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.4501426666666666</v>
+      </c>
+      <c r="N11">
+        <v>1.350428</v>
+      </c>
+      <c r="O11">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="P11">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="Q11">
+        <v>0.2075258225195556</v>
+      </c>
+      <c r="R11">
+        <v>1.867732402676</v>
+      </c>
+      <c r="S11">
+        <v>0.006726001839303455</v>
+      </c>
+      <c r="T11">
+        <v>0.006726001839303455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.2709113333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.812734</v>
+      </c>
+      <c r="I12">
+        <v>0.03286413225134919</v>
+      </c>
+      <c r="J12">
+        <v>0.03286413225134918</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.2864683333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.859405</v>
+      </c>
+      <c r="O12">
+        <v>0.07653612378937993</v>
+      </c>
+      <c r="P12">
+        <v>0.07653612378937995</v>
+      </c>
+      <c r="Q12">
+        <v>0.07760751814111111</v>
+      </c>
+      <c r="R12">
+        <v>0.69846766327</v>
+      </c>
+      <c r="S12">
+        <v>0.002515293294219815</v>
+      </c>
+      <c r="T12">
+        <v>0.002515293294219815</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.2709113333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.812734</v>
+      </c>
+      <c r="I13">
+        <v>0.03286413225134919</v>
+      </c>
+      <c r="J13">
+        <v>0.03286413225134918</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.423946</v>
+      </c>
+      <c r="N13">
+        <v>7.271838</v>
+      </c>
+      <c r="O13">
+        <v>0.647608861182233</v>
+      </c>
+      <c r="P13">
+        <v>0.6476088611822332</v>
+      </c>
+      <c r="Q13">
+        <v>0.656674442788</v>
+      </c>
+      <c r="R13">
+        <v>5.910069985091999</v>
+      </c>
+      <c r="S13">
+        <v>0.02128310326103855</v>
+      </c>
+      <c r="T13">
+        <v>0.02128310326103854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.2709113333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.812734</v>
+      </c>
+      <c r="I14">
+        <v>0.03286413225134919</v>
+      </c>
+      <c r="J14">
+        <v>0.03286413225134918</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.2710936666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.813281</v>
+      </c>
+      <c r="O14">
+        <v>0.0724284537459646</v>
+      </c>
+      <c r="P14">
+        <v>0.07242845374596461</v>
+      </c>
+      <c r="Q14">
+        <v>0.07344234669488889</v>
+      </c>
+      <c r="R14">
+        <v>0.660981120254</v>
+      </c>
+      <c r="S14">
+        <v>0.002380298282668108</v>
+      </c>
+      <c r="T14">
+        <v>0.002380298282668108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.2709113333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.812734</v>
+      </c>
+      <c r="I15">
+        <v>0.03286413225134919</v>
+      </c>
+      <c r="J15">
+        <v>0.03286413225134918</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.311266</v>
+      </c>
+      <c r="N15">
+        <v>0.933798</v>
+      </c>
+      <c r="O15">
+        <v>0.08316134921518423</v>
+      </c>
+      <c r="P15">
+        <v>0.08316134921518425</v>
+      </c>
+      <c r="Q15">
+        <v>0.08432548708133333</v>
+      </c>
+      <c r="R15">
+        <v>0.7589293837319999</v>
+      </c>
+      <c r="S15">
+        <v>0.002733025578808449</v>
+      </c>
+      <c r="T15">
+        <v>0.002733025578808449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.2709113333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.812734</v>
+      </c>
+      <c r="I16">
+        <v>0.03286413225134919</v>
+      </c>
+      <c r="J16">
+        <v>0.03286413225134918</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4501426666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.350428</v>
+      </c>
+      <c r="O16">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="P16">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="Q16">
+        <v>0.1219487500168889</v>
+      </c>
+      <c r="R16">
+        <v>1.097538750152</v>
+      </c>
+      <c r="S16">
+        <v>0.003952411834614269</v>
+      </c>
+      <c r="T16">
+        <v>0.003952411834614269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.683787666666667</v>
+      </c>
+      <c r="H17">
+        <v>5.051363</v>
+      </c>
+      <c r="I17">
+        <v>0.2042595260953424</v>
+      </c>
+      <c r="J17">
+        <v>0.2042595260953423</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.2864683333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.859405</v>
+      </c>
+      <c r="O17">
+        <v>0.07653612378937993</v>
+      </c>
+      <c r="P17">
+        <v>0.07653612378937995</v>
+      </c>
+      <c r="Q17">
+        <v>0.4823518465572222</v>
+      </c>
+      <c r="R17">
+        <v>4.341166619015</v>
+      </c>
+      <c r="S17">
+        <v>0.0156332323743932</v>
+      </c>
+      <c r="T17">
+        <v>0.0156332323743932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.683787666666667</v>
+      </c>
+      <c r="H18">
+        <v>5.051363</v>
+      </c>
+      <c r="I18">
+        <v>0.2042595260953424</v>
+      </c>
+      <c r="J18">
+        <v>0.2042595260953423</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.423946</v>
+      </c>
+      <c r="N18">
+        <v>7.271838</v>
+      </c>
+      <c r="O18">
+        <v>0.647608861182233</v>
+      </c>
+      <c r="P18">
+        <v>0.6476088611822332</v>
+      </c>
+      <c r="Q18">
+        <v>4.081410379466</v>
+      </c>
+      <c r="R18">
+        <v>36.732693415194</v>
+      </c>
+      <c r="S18">
+        <v>0.1322802790802273</v>
+      </c>
+      <c r="T18">
+        <v>0.1322802790802273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.683787666666667</v>
+      </c>
+      <c r="H19">
+        <v>5.051363</v>
+      </c>
+      <c r="I19">
+        <v>0.2042595260953424</v>
+      </c>
+      <c r="J19">
+        <v>0.2042595260953423</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.2710936666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.813281</v>
+      </c>
+      <c r="O19">
+        <v>0.0724284537459646</v>
+      </c>
+      <c r="P19">
+        <v>0.07242845374596461</v>
+      </c>
+      <c r="Q19">
+        <v>0.4564641724447778</v>
+      </c>
+      <c r="R19">
+        <v>4.108177552003</v>
+      </c>
+      <c r="S19">
+        <v>0.01479420163796915</v>
+      </c>
+      <c r="T19">
+        <v>0.01479420163796915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.683787666666667</v>
+      </c>
+      <c r="H20">
+        <v>5.051363</v>
+      </c>
+      <c r="I20">
+        <v>0.2042595260953424</v>
+      </c>
+      <c r="J20">
+        <v>0.2042595260953423</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.311266</v>
+      </c>
+      <c r="N20">
+        <v>0.933798</v>
+      </c>
+      <c r="O20">
+        <v>0.08316134921518423</v>
+      </c>
+      <c r="P20">
+        <v>0.08316134921518425</v>
+      </c>
+      <c r="Q20">
+        <v>0.5241058518526667</v>
+      </c>
+      <c r="R20">
+        <v>4.716952666674</v>
+      </c>
+      <c r="S20">
+        <v>0.0169864977801428</v>
+      </c>
+      <c r="T20">
+        <v>0.0169864977801428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.64261333472669</v>
-      </c>
-      <c r="H9">
-        <v>1.64261333472669</v>
-      </c>
-      <c r="I9">
-        <v>0.258854543056941</v>
-      </c>
-      <c r="J9">
-        <v>0.258854543056941</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.431199418564457</v>
-      </c>
-      <c r="N9">
-        <v>0.431199418564457</v>
-      </c>
-      <c r="O9">
-        <v>0.1512427656694524</v>
-      </c>
-      <c r="P9">
-        <v>0.1512427656694524</v>
-      </c>
-      <c r="Q9">
-        <v>0.7082939148603725</v>
-      </c>
-      <c r="R9">
-        <v>0.7082939148603725</v>
-      </c>
-      <c r="S9">
-        <v>0.0391498769980341</v>
-      </c>
-      <c r="T9">
-        <v>0.0391498769980341</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.683787666666667</v>
+      </c>
+      <c r="H21">
+        <v>5.051363</v>
+      </c>
+      <c r="I21">
+        <v>0.2042595260953424</v>
+      </c>
+      <c r="J21">
+        <v>0.2042595260953423</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4501426666666666</v>
+      </c>
+      <c r="N21">
+        <v>1.350428</v>
+      </c>
+      <c r="O21">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="P21">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="Q21">
+        <v>0.7579446703737778</v>
+      </c>
+      <c r="R21">
+        <v>6.821502033364</v>
+      </c>
+      <c r="S21">
+        <v>0.0245653152226099</v>
+      </c>
+      <c r="T21">
+        <v>0.02456531522260991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.111756</v>
+      </c>
+      <c r="H22">
+        <v>6.335267999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.2561761725235322</v>
+      </c>
+      <c r="J22">
+        <v>0.2561761725235322</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2864683333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.859405</v>
+      </c>
+      <c r="O22">
+        <v>0.07653612378937993</v>
+      </c>
+      <c r="P22">
+        <v>0.07653612378937995</v>
+      </c>
+      <c r="Q22">
+        <v>0.6049512217266666</v>
+      </c>
+      <c r="R22">
+        <v>5.444560995539999</v>
+      </c>
+      <c r="S22">
+        <v>0.01960673125215061</v>
+      </c>
+      <c r="T22">
+        <v>0.01960673125215062</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.111756</v>
+      </c>
+      <c r="H23">
+        <v>6.335267999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.2561761725235322</v>
+      </c>
+      <c r="J23">
+        <v>0.2561761725235322</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.423946</v>
+      </c>
+      <c r="N23">
+        <v>7.271838</v>
+      </c>
+      <c r="O23">
+        <v>0.647608861182233</v>
+      </c>
+      <c r="P23">
+        <v>0.6476088611822332</v>
+      </c>
+      <c r="Q23">
+        <v>5.118782509176</v>
+      </c>
+      <c r="R23">
+        <v>46.069042582584</v>
+      </c>
+      <c r="S23">
+        <v>0.1659019593499879</v>
+      </c>
+      <c r="T23">
+        <v>0.165901959349988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.111756</v>
+      </c>
+      <c r="H24">
+        <v>6.335267999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.2561761725235322</v>
+      </c>
+      <c r="J24">
+        <v>0.2561761725235322</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.2710936666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.813281</v>
+      </c>
+      <c r="O24">
+        <v>0.0724284537459646</v>
+      </c>
+      <c r="P24">
+        <v>0.07242845374596461</v>
+      </c>
+      <c r="Q24">
+        <v>0.5724836771453333</v>
+      </c>
+      <c r="R24">
+        <v>5.152353094307999</v>
+      </c>
+      <c r="S24">
+        <v>0.0185544440624389</v>
+      </c>
+      <c r="T24">
+        <v>0.0185544440624389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.111756</v>
+      </c>
+      <c r="H25">
+        <v>6.335267999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.2561761725235322</v>
+      </c>
+      <c r="J25">
+        <v>0.2561761725235322</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.311266</v>
+      </c>
+      <c r="N25">
+        <v>0.933798</v>
+      </c>
+      <c r="O25">
+        <v>0.08316134921518423</v>
+      </c>
+      <c r="P25">
+        <v>0.08316134921518425</v>
+      </c>
+      <c r="Q25">
+        <v>0.6573178430959999</v>
+      </c>
+      <c r="R25">
+        <v>5.915860587864</v>
+      </c>
+      <c r="S25">
+        <v>0.02130395614383874</v>
+      </c>
+      <c r="T25">
+        <v>0.02130395614383875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.111756</v>
+      </c>
+      <c r="H26">
+        <v>6.335267999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.2561761725235322</v>
+      </c>
+      <c r="J26">
+        <v>0.2561761725235322</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.4501426666666666</v>
+      </c>
+      <c r="N26">
+        <v>1.350428</v>
+      </c>
+      <c r="O26">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="P26">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="Q26">
+        <v>0.9505914771893331</v>
+      </c>
+      <c r="R26">
+        <v>8.555323294703999</v>
+      </c>
+      <c r="S26">
+        <v>0.03080908171511598</v>
+      </c>
+      <c r="T26">
+        <v>0.03080908171511598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.095956333333334</v>
+      </c>
+      <c r="H27">
+        <v>6.287869000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.2542595220516907</v>
+      </c>
+      <c r="J27">
+        <v>0.2542595220516907</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.2864683333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.859405</v>
+      </c>
+      <c r="O27">
+        <v>0.07653612378937993</v>
+      </c>
+      <c r="P27">
+        <v>0.07653612378937995</v>
+      </c>
+      <c r="Q27">
+        <v>0.6004251175494445</v>
+      </c>
+      <c r="R27">
+        <v>5.403826057945</v>
+      </c>
+      <c r="S27">
+        <v>0.01946003825437678</v>
+      </c>
+      <c r="T27">
+        <v>0.01946003825437678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.095956333333334</v>
+      </c>
+      <c r="H28">
+        <v>6.287869000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.2542595220516907</v>
+      </c>
+      <c r="J28">
+        <v>0.2542595220516907</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.423946</v>
+      </c>
+      <c r="N28">
+        <v>7.271838</v>
+      </c>
+      <c r="O28">
+        <v>0.647608861182233</v>
+      </c>
+      <c r="P28">
+        <v>0.6476088611822332</v>
+      </c>
+      <c r="Q28">
+        <v>5.080484970358</v>
+      </c>
+      <c r="R28">
+        <v>45.724364733222</v>
+      </c>
+      <c r="S28">
+        <v>0.1646607195206343</v>
+      </c>
+      <c r="T28">
+        <v>0.1646607195206343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.095956333333334</v>
+      </c>
+      <c r="H29">
+        <v>6.287869000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.2542595220516907</v>
+      </c>
+      <c r="J29">
+        <v>0.2542595220516907</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.2710936666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.813281</v>
+      </c>
+      <c r="O29">
+        <v>0.0724284537459646</v>
+      </c>
+      <c r="P29">
+        <v>0.07242845374596461</v>
+      </c>
+      <c r="Q29">
+        <v>0.5682004875765556</v>
+      </c>
+      <c r="R29">
+        <v>5.113804388189001</v>
+      </c>
+      <c r="S29">
+        <v>0.01841562403239195</v>
+      </c>
+      <c r="T29">
+        <v>0.01841562403239195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.095956333333334</v>
+      </c>
+      <c r="H30">
+        <v>6.287869000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.2542595220516907</v>
+      </c>
+      <c r="J30">
+        <v>0.2542595220516907</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.311266</v>
+      </c>
+      <c r="N30">
+        <v>0.933798</v>
+      </c>
+      <c r="O30">
+        <v>0.08316134921518423</v>
+      </c>
+      <c r="P30">
+        <v>0.08316134921518425</v>
+      </c>
+      <c r="Q30">
+        <v>0.6523999440513334</v>
+      </c>
+      <c r="R30">
+        <v>5.871599496462001</v>
+      </c>
+      <c r="S30">
+        <v>0.02114456490462648</v>
+      </c>
+      <c r="T30">
+        <v>0.02114456490462649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.095956333333334</v>
+      </c>
+      <c r="H31">
+        <v>6.287869000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.2542595220516907</v>
+      </c>
+      <c r="J31">
+        <v>0.2542595220516907</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.4501426666666666</v>
+      </c>
+      <c r="N31">
+        <v>1.350428</v>
+      </c>
+      <c r="O31">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="P31">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="Q31">
+        <v>0.9434793731035556</v>
+      </c>
+      <c r="R31">
+        <v>8.491314357932001</v>
+      </c>
+      <c r="S31">
+        <v>0.03057857533966118</v>
+      </c>
+      <c r="T31">
+        <v>0.03057857533966119</v>
       </c>
     </row>
   </sheetData>
